--- a/tensorflow/columns_experiment_win_middle/TrainingComparison.xlsx
+++ b/tensorflow/columns_experiment_win_middle/TrainingComparison.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\taiga\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment_win_middle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gen Nishida\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment_win_middle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAA24C4-1ACA-4514-B3F0-191873BCF68B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464B73F3-C089-4D1C-AC64-54086C622800}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="645" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1695" yWindow="3105" windowWidth="22905" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Model</t>
   </si>
@@ -73,6 +73,12 @@
   <si>
     <t>Shift [-4, 4]
 rotate [-0.1, 0.1]</t>
+  </si>
+  <si>
+    <t>Adjust y according to the random crop
+Grayscale
+Use border between windows
+Crop sky and shop</t>
   </si>
 </sst>
 </file>
@@ -439,7 +445,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -559,20 +565,40 @@
         <v>4.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="G4" s="9">
+        <v>60</v>
+      </c>
+      <c r="H4" s="10">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>9.0445000000000006E-5</v>
+      </c>
+      <c r="J4" s="11">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1.5E-3</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2">

--- a/tensorflow/columns_experiment_win_middle/TrainingComparison.xlsx
+++ b/tensorflow/columns_experiment_win_middle/TrainingComparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gen Nishida\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment_win_middle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464B73F3-C089-4D1C-AC64-54086C622800}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE79238-F604-49AD-893A-BEA7324BF8E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="3105" windowWidth="22905" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="615" yWindow="3045" windowWidth="22905" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,20 +62,20 @@
     <t>x20</t>
   </si>
   <si>
-    <t>Adjust y according to the random crop
+    <t>Shift [-4, 4]
+rotate [-0.5, 0.5]</t>
+  </si>
+  <si>
+    <t>Shift [-4, 4]
+rotate [-0.1, 0.1]</t>
+  </si>
+  <si>
+    <t>Adjust param according to the random crop
 Grayscale
 Use border between windows</t>
   </si>
   <si>
-    <t>Shift [-4, 4]
-rotate [-0.5, 0.5]</t>
-  </si>
-  <si>
-    <t>Shift [-4, 4]
-rotate [-0.1, 0.1]</t>
-  </si>
-  <si>
-    <t>Adjust y according to the random crop
+    <t>Adjust param according to the random crop
 Grayscale
 Use border between windows
 Crop sky and shop</t>
@@ -445,7 +445,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -503,10 +503,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>11</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>10</v>
@@ -573,7 +573,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>14</v>

--- a/tensorflow/columns_experiment_win_middle/TrainingComparison.xlsx
+++ b/tensorflow/columns_experiment_win_middle/TrainingComparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gen Nishida\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment_win_middle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE79238-F604-49AD-893A-BEA7324BF8E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295615DB-AC87-4386-BB38-A66240A3C2CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="3045" windowWidth="22905" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1455" yWindow="3645" windowWidth="22905" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>Model</t>
   </si>
@@ -79,6 +79,13 @@
 Grayscale
 Use border between windows
 Crop sky and shop</t>
+  </si>
+  <si>
+    <t>Adjust param according to the random crop
+Grayscale
+Use border between windows
+Crop sky and shop
+Resize right before pushing to X</t>
   </si>
 </sst>
 </file>
@@ -104,7 +111,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,6 +122,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF0000FF"/>
         <bgColor rgb="FF0000FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -173,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -219,6 +232,21 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -445,7 +473,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -566,54 +594,74 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="19">
         <v>1E-4</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="19">
         <v>60</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="20">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="17">
         <v>9.0445000000000006E-5</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="21">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="17">
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="2"/>
+      <c r="B5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="G5" s="9">
+        <v>60</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>8.4968000000000001E-4</v>
+      </c>
+      <c r="J5" s="6">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="K5" s="2">
+        <v>5.7000000000000002E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2">

--- a/tensorflow/columns_experiment_win_middle/TrainingComparison.xlsx
+++ b/tensorflow/columns_experiment_win_middle/TrainingComparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gen Nishida\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment_win_middle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295615DB-AC87-4386-BB38-A66240A3C2CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770F3FF7-DFEA-4DA5-B172-FA5393322BE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="3645" windowWidth="22905" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4215" yWindow="5535" windowWidth="21795" windowHeight="10275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>Model</t>
   </si>
@@ -86,6 +86,24 @@
 Use border between windows
 Crop sky and shop
 Resize right before pushing to X</t>
+  </si>
+  <si>
+    <t>Adjust param according to the random crop
+Grayscale
+Use border between windows
+Crop sky and shop
+Selected 12 extreme images for training</t>
+  </si>
+  <si>
+    <t>x100</t>
+  </si>
+  <si>
+    <t>Shift [-4, 4]
+rotate [-0.5, 0.5]
+horizontal flip</t>
+  </si>
+  <si>
+    <t>x10</t>
   </si>
 </sst>
 </file>
@@ -470,10 +488,10 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -663,35 +681,75 @@
         <v>5.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="G6" s="9">
+        <v>60</v>
+      </c>
+      <c r="H6" s="15">
+        <v>2.87E-2</v>
+      </c>
+      <c r="I6" s="12">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="J6" s="16">
+        <v>3.95E-2</v>
+      </c>
+      <c r="K6" s="12">
+        <v>8.6999999999999994E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="7"/>
+      <c r="B7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="G7" s="9">
+        <v>60</v>
+      </c>
+      <c r="H7" s="10">
+        <v>1.21E-2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2.0943000000000001E-4</v>
+      </c>
+      <c r="J7" s="11">
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="K7" s="7">
+        <v>3.8999999999999998E-3</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2">

--- a/tensorflow/columns_experiment_win_middle/TrainingComparison.xlsx
+++ b/tensorflow/columns_experiment_win_middle/TrainingComparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gen Nishida\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment_win_middle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770F3FF7-DFEA-4DA5-B172-FA5393322BE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1BA75C-66D3-4614-9DEE-7D0C93C8129F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="5535" windowWidth="21795" windowHeight="10275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6600" yWindow="3660" windowWidth="21660" windowHeight="11670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
     <t>Model</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>x10</t>
+  </si>
+  <si>
+    <t>Adjust param according to the random crop
+Grayscale (1 channel)
+Use border between windows
+Crop sky and shop</t>
   </si>
 </sst>
 </file>
@@ -488,10 +494,10 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -751,20 +757,40 @@
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="7"/>
+      <c r="B8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="G8" s="14">
+        <v>60</v>
+      </c>
+      <c r="H8" s="10">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="I8" s="7">
+        <v>6.2852999999999997E-4</v>
+      </c>
+      <c r="J8" s="11">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="K8" s="7">
+        <v>8.6E-3</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2">

--- a/tensorflow/columns_experiment_win_middle/TrainingComparison.xlsx
+++ b/tensorflow/columns_experiment_win_middle/TrainingComparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gen Nishida\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment_win_middle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1BA75C-66D3-4614-9DEE-7D0C93C8129F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A75645B-25C0-4FBD-BD0D-107234DC8DD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="3660" windowWidth="21660" windowHeight="11670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6600" yWindow="660" windowWidth="21660" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
   </si>
   <si>
     <t>Adjust param according to the random crop
-Grayscale (1 channel)
+Grayscale (float32)
 Use border between windows
 Crop sky and shop</t>
   </si>
@@ -497,7 +497,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/tensorflow/columns_experiment_win_middle/TrainingComparison.xlsx
+++ b/tensorflow/columns_experiment_win_middle/TrainingComparison.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gen Nishida\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment_win_middle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\taiga\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment_win_middle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A75645B-25C0-4FBD-BD0D-107234DC8DD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E2B928-F479-4212-B61C-F80BB4C40CA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="660" windowWidth="21660" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5355" yWindow="1155" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>Model</t>
   </si>
@@ -110,6 +110,13 @@
 Grayscale (float32)
 Use border between windows
 Crop sky and shop</t>
+  </si>
+  <si>
+    <t>VGG19 - no pretrained weights
++ Dense(512, relu, regularizer)
++ Dropout
++ Dense(512, relu, regularizer)
++ Dropout</t>
   </si>
 </sst>
 </file>
@@ -135,7 +142,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,6 +161,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -210,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -271,6 +284,15 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -497,7 +519,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -792,20 +814,40 @@
         <v>8.6E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="2"/>
+      <c r="B9" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="24">
+        <v>1E-4</v>
+      </c>
+      <c r="G9" s="24">
+        <v>60</v>
+      </c>
+      <c r="H9" s="10">
+        <v>1.35E-2</v>
+      </c>
+      <c r="I9" s="7">
+        <v>3.2307000000000002E-2</v>
+      </c>
+      <c r="J9" s="11">
+        <v>2.8299999999999999E-2</v>
+      </c>
+      <c r="K9" s="7">
+        <v>7.3000000000000001E-3</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="12">

--- a/tensorflow/columns_experiment_win_middle/TrainingComparison.xlsx
+++ b/tensorflow/columns_experiment_win_middle/TrainingComparison.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\taiga\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment_win_middle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gen Nishida\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment_win_middle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E2B928-F479-4212-B61C-F80BB4C40CA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD08DAE-ABB7-4E53-BC65-9F22890B6B2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="1155" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4230" yWindow="1470" windowWidth="23730" windowHeight="13890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
   <si>
     <t>Model</t>
   </si>
@@ -117,6 +117,14 @@
 + Dropout
 + Dense(512, relu, regularizer)
 + Dropout</t>
+  </si>
+  <si>
+    <t>Shift [-4, 4] (mode='edge')
+rotate [-0.5, 0.5]</t>
+  </si>
+  <si>
+    <t>Shift [-4, 4] (mode='edge')
+rotate [-0.5, 0.5] (mode='nearest')</t>
   </si>
 </sst>
 </file>
@@ -516,17 +524,17 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
     <col min="5" max="6" width="8.42578125" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" customWidth="1"/>
@@ -849,35 +857,75 @@
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="12"/>
-    </row>
-    <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="G10" s="14">
+        <v>60</v>
+      </c>
+      <c r="H10" s="15">
+        <v>1.01E-2</v>
+      </c>
+      <c r="I10" s="12">
+        <v>1.7908E-4</v>
+      </c>
+      <c r="J10" s="16">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="K10" s="12">
+        <v>3.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="7"/>
+      <c r="B11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="G11" s="14">
+        <v>60</v>
+      </c>
+      <c r="H11" s="10">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1.6636999999999999E-4</v>
+      </c>
+      <c r="J11" s="11">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="K11" s="7">
+        <v>7.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2">

--- a/tensorflow/columns_experiment_win_middle/TrainingComparison.xlsx
+++ b/tensorflow/columns_experiment_win_middle/TrainingComparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gen Nishida\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment_win_middle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD08DAE-ABB7-4E53-BC65-9F22890B6B2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93FC440-7DD8-4467-B698-2988D48F10FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="1470" windowWidth="23730" windowHeight="13890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="1005" windowWidth="20415" windowHeight="14070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="40">
   <si>
     <t>Model</t>
   </si>
@@ -125,6 +125,71 @@
   <si>
     <t>Shift [-4, 4] (mode='edge')
 rotate [-0.5, 0.5] (mode='nearest')</t>
+  </si>
+  <si>
+    <t>0.0073
+?</t>
+  </si>
+  <si>
+    <t>0.000090445
+?</t>
+  </si>
+  <si>
+    <t>0.0141
+0.0144</t>
+  </si>
+  <si>
+    <t>0.00027311
+0.00028738</t>
+  </si>
+  <si>
+    <t>0.0235
+0.0285</t>
+  </si>
+  <si>
+    <t>0.0012
+0.0040</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>0.0242
+0.0256</t>
+  </si>
+  <si>
+    <t>0.0048
+0.0021</t>
+  </si>
+  <si>
+    <t>0.0067
+0.0135</t>
+  </si>
+  <si>
+    <t>0.000068328
+0.000253420</t>
+  </si>
+  <si>
+    <t>0.0187
+0.0275</t>
+  </si>
+  <si>
+    <t>0.0015
+0.0071</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>Adjust param according to the random crop
+Grayscale
+Use border between windows
+Crop sky and shop
+Use EarlyStopping &amp; ModelCheckpoint</t>
+  </si>
+  <si>
+    <t>Shift [-4, 4] (mode='edge')
+rotate [-0.0, 0.0]</t>
   </si>
 </sst>
 </file>
@@ -150,7 +215,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,6 +237,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -288,12 +359,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -301,6 +366,36 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -521,13 +616,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -544,7 +639,7 @@
     <col min="11" max="11" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -577,7 +672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -599,20 +694,23 @@
       <c r="G2" s="4">
         <v>60</v>
       </c>
-      <c r="H2" s="5">
-        <v>1.41E-2</v>
-      </c>
-      <c r="I2" s="2">
-        <v>2.7311000000000002E-4</v>
-      </c>
-      <c r="J2" s="6">
-        <v>2.35E-2</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1.1999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="H2" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -634,55 +732,58 @@
       <c r="G3" s="4">
         <v>60</v>
       </c>
-      <c r="H3" s="5">
-        <v>6.7000000000000002E-3</v>
-      </c>
-      <c r="I3" s="2">
-        <v>6.8328E-5</v>
-      </c>
-      <c r="J3" s="6">
-        <v>2.4199999999999999E-2</v>
-      </c>
-      <c r="K3" s="2">
-        <v>4.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
+      <c r="H3" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="18" t="s">
+      <c r="B4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="19">
-        <v>1E-4</v>
-      </c>
-      <c r="G4" s="19">
-        <v>60</v>
-      </c>
-      <c r="H4" s="20">
-        <v>7.3000000000000001E-3</v>
-      </c>
-      <c r="I4" s="17">
-        <v>9.0445000000000006E-5</v>
-      </c>
-      <c r="J4" s="21">
-        <v>1.8700000000000001E-2</v>
-      </c>
-      <c r="K4" s="17">
-        <v>1.5E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="F4" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="G4" s="14">
+        <v>60</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -717,7 +818,7 @@
         <v>5.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -752,7 +853,7 @@
         <v>8.6999999999999994E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -774,20 +875,23 @@
       <c r="G7" s="9">
         <v>60</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="15">
         <v>1.21E-2</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="12">
         <v>2.0943000000000001E-4</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="16">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="12">
         <v>3.8999999999999998E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="L7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -822,77 +926,80 @@
         <v>8.6E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="24">
-        <v>1E-4</v>
-      </c>
-      <c r="G9" s="24">
-        <v>60</v>
-      </c>
-      <c r="H9" s="10">
+      <c r="F9" s="22">
+        <v>1E-4</v>
+      </c>
+      <c r="G9" s="22">
+        <v>60</v>
+      </c>
+      <c r="H9" s="25">
         <v>1.35E-2</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="26">
         <v>3.2307000000000002E-2</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="27">
         <v>2.8299999999999999E-2</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="26">
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
+    <row r="10" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="14">
-        <v>1E-4</v>
-      </c>
-      <c r="G10" s="14">
-        <v>60</v>
-      </c>
-      <c r="H10" s="15">
+      <c r="F10" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="G10" s="19">
+        <v>60</v>
+      </c>
+      <c r="H10" s="31">
         <v>1.01E-2</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="17">
         <v>1.7908E-4</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="32">
         <v>2.3400000000000001E-2</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="17">
         <v>3.5000000000000001E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="L10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -927,50 +1034,119 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="G12" s="14">
+        <v>60</v>
+      </c>
+      <c r="H12" s="15">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="I12" s="12">
+        <v>1.5207E-4</v>
+      </c>
+      <c r="J12" s="16">
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="K12" s="12">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="L12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="G13" s="14">
+        <v>60</v>
+      </c>
+      <c r="H13" s="10">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="I13" s="7">
+        <v>9.2429999999999994E-5</v>
+      </c>
+      <c r="J13" s="11">
+        <v>2.64E-2</v>
+      </c>
+      <c r="K13" s="7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="7"/>
+      <c r="B14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="G14" s="14">
+        <v>60</v>
+      </c>
+      <c r="H14" s="10">
+        <v>1.12E-2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1.9406E-4</v>
+      </c>
+      <c r="J14" s="11">
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="K14" s="7">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="L14" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K6" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
